--- a/data/trans_camb/P1423-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1423-Provincia-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.8755324954113469</v>
+        <v>-0.7861011028250545</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.9117340248588941</v>
+        <v>-0.9339592298432602</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.510007663071372</v>
+        <v>-3.348831593332081</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.145036006920095</v>
+        <v>-3.339729504343615</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.774414212372637</v>
+        <v>-1.70072031836888</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-9.95559138773733</v>
+        <v>-9.687406429710268</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.6435477724354415</v>
+        <v>-0.8144906825860816</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.0846884740229345</v>
+        <v>-0.08948493153822079</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-5.483960234012878</v>
+        <v>-5.443700270335118</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.307436418863952</v>
+        <v>5.466449277478416</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.701692176294306</v>
+        <v>5.438253005090572</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9510108146205325</v>
+        <v>0.8891382413368143</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.609308470805341</v>
+        <v>7.940543066170708</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>10.07191416267088</v>
+        <v>10.1292186250922</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-1.351554809448532</v>
+        <v>-1.322489068492045</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5.620346587195622</v>
+        <v>5.407271458130274</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>6.68123660924582</v>
+        <v>6.452802578720929</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-0.8537513935026551</v>
+        <v>-0.7631475103507865</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.8531397362761032</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.4022257976030398</v>
+        <v>-0.4022257976030396</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.2039767042577714</v>
@@ -769,7 +769,7 @@
         <v>0.5110450474400376</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.4815169826406197</v>
+        <v>-0.4815169826406198</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2853638678936574</v>
+        <v>-0.2469923193807972</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3765137929935618</v>
+        <v>-0.2845967124385165</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.8429455077102305</v>
+        <v>-0.8304919286185647</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2538396157768373</v>
+        <v>-0.2638364817506359</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1414061078304679</v>
+        <v>-0.1393420688500809</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.7098872333439994</v>
+        <v>-0.699353484145104</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.09300106391166356</v>
+        <v>-0.1108729471099681</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.008787677998170764</v>
+        <v>-0.03361742498010855</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.6697697870763561</v>
+        <v>-0.6726332808704319</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>3.956223491708026</v>
+        <v>3.572469729858652</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>3.951079118964418</v>
+        <v>3.538268037313809</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.000903875431165</v>
+        <v>0.7301653378983511</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.075006991716978</v>
+        <v>1.058864596640642</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.245775703129762</v>
+        <v>1.333129805693394</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.1454984645614263</v>
+        <v>-0.1519317388712078</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.147314131574351</v>
+        <v>1.10238047505479</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.42240949005075</v>
+        <v>1.305686467244507</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.1589723061785346</v>
+        <v>-0.1418973604764054</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.8186440371837679</v>
+        <v>-0.8191350186351474</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.346339543435052</v>
+        <v>-1.190605154673114</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7359779828552228</v>
+        <v>0.8273115727186382</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.7347383055635254</v>
+        <v>-0.3896976941719779</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.130048849318351</v>
+        <v>-3.121449226735223</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.107893922701378</v>
+        <v>0.96444641763355</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.07206035414745225</v>
+        <v>0.2166960094945576</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.611784075051223</v>
+        <v>-1.559967574657435</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.598841850098012</v>
+        <v>1.827964833297852</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.126397883673762</v>
+        <v>4.161473073961583</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.75920501305133</v>
+        <v>2.781467633851789</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.102086627919193</v>
+        <v>6.132992946510014</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.275741264448957</v>
+        <v>7.212967780523011</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.191462666128419</v>
+        <v>4.184262233556866</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>8.148666530202542</v>
+        <v>8.384473931407173</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.702488624430613</v>
+        <v>4.771784877281805</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.77520502154785</v>
+        <v>2.848063491051047</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>6.307096060014302</v>
+        <v>6.239794386738078</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3042506334853818</v>
+        <v>-0.3401255115861491</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4017752960368755</v>
+        <v>-0.3669578778966618</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.179868714256775</v>
+        <v>0.1963066243348827</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.09634397397587435</v>
+        <v>-0.0692594709428075</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2846376576541427</v>
+        <v>-0.2894074306826696</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09158502666307564</v>
+        <v>0.07532888322120336</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01786583190748366</v>
+        <v>0.01394891046690331</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.227759874990963</v>
+        <v>-0.2322871086585794</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.2249369452848131</v>
+        <v>0.244947199345316</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.987318786249991</v>
+        <v>2.897149722410881</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.826107534192805</v>
+        <v>2.189716014856937</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.755271793698278</v>
+        <v>4.083074508706987</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.9829454517807661</v>
+        <v>0.9810517508488813</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5991867580857314</v>
+        <v>0.577577149907465</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.185346960388901</v>
+        <v>1.17435798933217</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9892829927471453</v>
+        <v>0.9820083185974908</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5844990743248976</v>
+        <v>0.5881918882356907</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.336755131041155</v>
+        <v>1.285238579903087</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>0.1474203959942572</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8.027989044587907</v>
+        <v>8.027989044587908</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>4.802434728874197</v>
@@ -1083,7 +1083,7 @@
         <v>1.265982997852731</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>8.587720744079121</v>
+        <v>8.587720744079123</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>4.432092792778601</v>
@@ -1092,7 +1092,7 @@
         <v>0.7266789545837683</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>8.419094293274874</v>
+        <v>8.41909429327487</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.323980776924775</v>
+        <v>1.429357517544348</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.933653958404068</v>
+        <v>-1.658657404874138</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.226635702837921</v>
+        <v>5.047890526640823</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.09667869032681783</v>
+        <v>0.8512299696464567</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.920721000105963</v>
+        <v>-2.470540401623115</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>4.176329285932005</v>
+        <v>4.613346830185776</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.71658871776763</v>
+        <v>1.863026245296768</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.76419929226212</v>
+        <v>-1.451903983232721</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>5.813703059006184</v>
+        <v>5.659694520289306</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.083271699046485</v>
+        <v>6.901483259330017</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.89288014080748</v>
+        <v>1.895689613427738</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.48660918286874</v>
+        <v>11.59604687327609</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.189907386800845</v>
+        <v>9.673730940853819</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.211873622396486</v>
+        <v>5.537418818437965</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>12.5509577076466</v>
+        <v>12.44441154804945</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>7.239293496321952</v>
+        <v>7.288667534351568</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.851983739314259</v>
+        <v>2.938261797227614</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>10.98640541001881</v>
+        <v>10.99592319654527</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1275408074066893</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>6.945417543436009</v>
+        <v>6.945417543436011</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.7286293462699492</v>
@@ -1188,7 +1188,7 @@
         <v>0.1920759814950251</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1.302936053266069</v>
+        <v>1.30293605326607</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>1.124248524206493</v>
@@ -1197,7 +1197,7 @@
         <v>0.1843300175469789</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>2.135594802931826</v>
+        <v>2.135594802931825</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2277172562643995</v>
+        <v>0.2110320108624704</v>
       </c>
       <c r="D20" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>1.290676297133055</v>
+        <v>1.434470872293907</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.02225724656974421</v>
+        <v>0.08092931516757738</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3491277579763669</v>
+        <v>-0.3167234633913829</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4663066166761101</v>
+        <v>0.5114087470862184</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2997498744489195</v>
+        <v>0.3292889721295934</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.363191640890382</v>
+        <v>-0.2991380499794756</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>1.097545449956616</v>
+        <v>0.9551612562048792</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,29 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>17.30271687644951</v>
-      </c>
-      <c r="D21" s="6" t="n">
-        <v>6.841230962230491</v>
-      </c>
+        <v>18.6753911450019</v>
+      </c>
+      <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="n">
-        <v>29.09696538787772</v>
+        <v>31.3429743288299</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.804439573649359</v>
+        <v>1.962020815431702</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.008405411443725</v>
+        <v>1.068941288111893</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.710824609159438</v>
+        <v>2.782442725104593</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>2.441507171829807</v>
+        <v>2.492998539444914</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.9560556965202467</v>
+        <v>1.083845214361398</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>3.964974921201551</v>
+        <v>3.637634250412238</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1295,7 @@
         <v>2.177326416259816</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>5.324944467131227</v>
+        <v>5.324944467131229</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>4.790928344232049</v>
@@ -1317,31 +1315,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.840606627053545</v>
+        <v>-1.756055219837015</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.650944767117909</v>
+        <v>-1.57451465256042</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.745391936793237</v>
+        <v>1.994768027733283</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5.119616101266863</v>
+        <v>5.188465543742487</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.065623698405077</v>
+        <v>-0.905958404919088</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1.924838015985801</v>
+        <v>1.994963109453087</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.468289399400099</v>
+        <v>2.374161578886285</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.5462250826157184</v>
+        <v>-0.4837137223978864</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>2.933655949651493</v>
+        <v>2.987173403106666</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1350,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.927287611616632</v>
+        <v>2.93702689701689</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.126215173095466</v>
+        <v>3.206115918044348</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.461486322143218</v>
+        <v>8.993456153011735</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>13.2288868498999</v>
+        <v>13.27071885985129</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.418289529167279</v>
+        <v>5.777658923325052</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>8.224665527170474</v>
+        <v>8.467256112412267</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>7.318463696940679</v>
+        <v>7.377132858787465</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.568702293572798</v>
+        <v>3.703833076809425</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>7.580844261951645</v>
+        <v>7.887467637595104</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1420,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6437002568361894</v>
+        <v>-0.6445789457559383</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5508490154405918</v>
+        <v>-0.5379972147491578</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2945747025174114</v>
+        <v>0.3908962054658936</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.7180045426773616</v>
+        <v>0.8006176176223143</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2212379210868923</v>
+        <v>-0.1683051240384939</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2811767599563004</v>
+        <v>0.3059174989354588</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.526351717694839</v>
+        <v>0.5467439274068803</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1630536493221867</v>
+        <v>-0.1271995642845451</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.652474353020677</v>
+        <v>0.6492938183575386</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1455,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.709901092040233</v>
+        <v>3.058070857513155</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>3.093862176746253</v>
+        <v>3.183088367299586</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>7.678506274306949</v>
+        <v>7.240537699064778</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>4.135724721685261</v>
+        <v>4.489261958188044</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.699741864937493</v>
+        <v>1.914283089141863</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.755479456551581</v>
+        <v>2.961090062079837</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>3.043008758328959</v>
+        <v>3.088881608871736</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.500210664847685</v>
+        <v>1.44126567723825</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>3.102313171062602</v>
+        <v>3.081936291588198</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1529,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.768152706991282</v>
+        <v>-2.126500662695437</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.634554894161343</v>
+        <v>-1.937453028485664</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-4.976402539122176</v>
+        <v>-5.031277066409984</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.771227725312108</v>
+        <v>2.946903224846385</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-3.913878281048343</v>
+        <v>-4.122905439320458</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-8.01999110915601</v>
+        <v>-8.291981585500443</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.162920982427314</v>
+        <v>1.952827404451891</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.889433348656609</v>
+        <v>-1.668450283856155</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-5.171112668731741</v>
+        <v>-5.305278892263673</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1564,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.796371509258236</v>
+        <v>5.635108803151526</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6.159570009987875</v>
+        <v>6.310220465996946</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.4231472833340889</v>
+        <v>0.5521337025324874</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>16.59289928453364</v>
+        <v>16.71665506567351</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>8.094919955129146</v>
+        <v>8.475965785760144</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.056467450945594</v>
+        <v>1.548943654511087</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>9.884140182829007</v>
+        <v>9.953752856073395</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>5.405428706717832</v>
+        <v>5.917800121066319</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.747658825977657</v>
+        <v>0.6091497514698609</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1634,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.410446448094956</v>
+        <v>-0.5111159716693711</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.4528248953293212</v>
+        <v>-0.4481236156423715</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.8805742497100651</v>
+        <v>-0.9057613333146615</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1920689603529863</v>
+        <v>0.1663152471647467</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3000557637094546</v>
+        <v>-0.3229859198553781</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.5657305728472964</v>
+        <v>-0.5900901225250641</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2320771714650792</v>
+        <v>0.1612355597488658</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2133600763795432</v>
+        <v>-0.1867884150701326</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.5921400160134583</v>
+        <v>-0.5867108005633953</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1669,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>3.137639098237475</v>
+        <v>3.050369299719513</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>3.094195683427782</v>
+        <v>3.169443625544584</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.6781894575616511</v>
+        <v>0.4787746481394362</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>2.242547874734553</v>
+        <v>2.199841861528241</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.166647649105495</v>
+        <v>1.170360613142734</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3226216426559802</v>
+        <v>0.2842554830939976</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.905435281070204</v>
+        <v>1.931175413725671</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.041281482509987</v>
+        <v>1.193322931126934</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.1630440742028868</v>
+        <v>0.1314678703633279</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1714,7 @@
         <v>1.836742285484126</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>9.421706195561139</v>
+        <v>9.421706195561141</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>7.61336208545168</v>
@@ -1725,7 +1723,7 @@
         <v>7.076902086671219</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>9.302411198535143</v>
+        <v>9.30241119853514</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>6.033690628840327</v>
@@ -1734,7 +1732,7 @@
         <v>4.51856195955799</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>9.298249232387173</v>
+        <v>9.298249232387175</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1743,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>1.98632564621408</v>
+        <v>1.79261090952856</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.05019165951491724</v>
+        <v>0.04845837914503378</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>6.252637126062075</v>
+        <v>6.489578629837888</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>2.84607885394056</v>
+        <v>2.723336152329329</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>2.223335873910482</v>
+        <v>2.437661603843888</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>5.008142661179599</v>
+        <v>4.998232143960021</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>3.285307455618475</v>
+        <v>2.936769287329841</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>1.841024996813489</v>
+        <v>1.79719515561363</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>6.332679030819064</v>
+        <v>6.730451352764898</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1778,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>7.683412637106078</v>
+        <v>8.321862811421456</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>4.491675516432911</v>
+        <v>4.316992862549625</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>12.59456382985135</v>
+        <v>13.42848730918987</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>12.58511254645162</v>
+        <v>12.75704630786971</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>12.29450029226016</v>
+        <v>11.91347533931551</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>13.39715696117789</v>
+        <v>13.64129619073181</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>9.271684960828495</v>
+        <v>8.843003274783579</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>7.345977468407261</v>
+        <v>7.256233536103952</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>12.10185017027116</v>
+        <v>12.11342353569691</v>
       </c>
     </row>
     <row r="37">
@@ -1839,7 +1837,7 @@
         <v>1.418174206452705</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>2.918303952576557</v>
+        <v>2.918303952576558</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1848,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.2351654365061399</v>
+        <v>0.373375902223966</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.5598954175547463</v>
+        <v>-0.6036622007757803</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>2.573791690225273</v>
+        <v>2.605136656781251</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.3133457710394287</v>
+        <v>0.2488931316583246</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.2695693766227693</v>
+        <v>0.2411763224509335</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.505408288133588</v>
+        <v>0.5772374513300225</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.6873528471824149</v>
+        <v>0.6259784957304405</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.3595320990397611</v>
+        <v>0.388576677587195</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1.322489114501723</v>
+        <v>1.468227980546246</v>
       </c>
     </row>
     <row r="39">
@@ -1888,22 +1886,22 @@
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="n">
-        <v>3.431723664279938</v>
+        <v>3.340280125583043</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>3.228955125760129</v>
+        <v>3.113230282101553</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>3.479536926429434</v>
+        <v>3.770177612452667</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>4.098087810519191</v>
+        <v>3.889341533933333</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>3.53212597645125</v>
+        <v>3.362277386076316</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>5.693432761164799</v>
+        <v>6.011332062242988</v>
       </c>
     </row>
     <row r="40">
@@ -1953,31 +1951,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.007250666303408049</v>
+        <v>0.1615552028836547</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-2.629948578807233</v>
+        <v>-2.403055625095335</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1.950768724608801</v>
+        <v>1.897753894094442</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-2.341548832952563</v>
+        <v>-2.147784708659892</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-2.614911912760252</v>
+        <v>-2.657096149476435</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>3.853015674084634</v>
+        <v>3.833248753289484</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.2101291572364548</v>
+        <v>-0.2750816116236478</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-2.049875740382733</v>
+        <v>-1.833207987493514</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>3.715131765277076</v>
+        <v>3.694645018632396</v>
       </c>
     </row>
     <row r="42">
@@ -1988,31 +1986,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>4.364791844273778</v>
+        <v>4.613947527917908</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.187149477344391</v>
+        <v>1.01137238014126</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>7.063097646174546</v>
+        <v>7.046746643332208</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3.918227613709039</v>
+        <v>4.003893545358845</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>3.642688499574957</v>
+        <v>3.433522188777327</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>10.32205456697015</v>
+        <v>10.24677736321165</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>3.457505113305285</v>
+        <v>3.624243109229218</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.680234396623791</v>
+        <v>1.659133454153348</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>7.976954078179268</v>
+        <v>7.523015942040782</v>
       </c>
     </row>
     <row r="43">
@@ -2058,31 +2056,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.01676475731161899</v>
+        <v>0.007106600719713077</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.6808575237139535</v>
+        <v>-0.6497104255004905</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.4494439543035854</v>
+        <v>0.4410974253752424</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.2642357022216191</v>
+        <v>-0.2289848763851347</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.278153213593979</v>
+        <v>-0.2882498786631653</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3817667522530728</v>
+        <v>0.371623667328324</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.03274737030052052</v>
+        <v>-0.0392927744798216</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.3184296003969324</v>
+        <v>-0.2897861437335265</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.5553770177073107</v>
+        <v>0.5605591403645126</v>
       </c>
     </row>
     <row r="45">
@@ -2093,31 +2091,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>2.000608644610514</v>
+        <v>2.313078530315626</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.5905452805465973</v>
+        <v>0.54164560683463</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>3.28961930078134</v>
+        <v>3.306414561015686</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.5932829061145962</v>
+        <v>0.6294962391575775</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.5508470064590052</v>
+        <v>0.493618067866723</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>1.605652475882496</v>
+        <v>1.588788516284756</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.7289481537168799</v>
+        <v>0.7947116495929973</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.3565950591439619</v>
+        <v>0.3716101249032041</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>1.691769827631698</v>
+        <v>1.620612829598279</v>
       </c>
     </row>
     <row r="46">
@@ -2138,7 +2136,7 @@
         <v>-1.654781363692746</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-0.7289683379806635</v>
+        <v>-0.7289683379806643</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>1.064265051399969</v>
@@ -2156,7 +2154,7 @@
         <v>1.328172829752471</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>1.845512669473893</v>
+        <v>1.845512669473892</v>
       </c>
     </row>
     <row r="47">
@@ -2167,31 +2165,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-4.869557599270393</v>
+        <v>-5.091362722351377</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-3.83032719742406</v>
+        <v>-3.842563605440082</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-3.069691002381941</v>
+        <v>-3.120804820984506</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-1.684307506749049</v>
+        <v>-1.710945962174187</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>1.032393319945794</v>
+        <v>1.152920289054147</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>1.625659563622873</v>
+        <v>1.724844115355268</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-2.897181426205721</v>
+        <v>-2.365219647948507</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-0.5674921820477223</v>
+        <v>-0.5153423259325894</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-0.09385015924656107</v>
+        <v>0.06077081148467161</v>
       </c>
     </row>
     <row r="48">
@@ -2202,31 +2200,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-0.594938740858964</v>
+        <v>-0.7397233176871557</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.5299935862587926</v>
+        <v>0.4814331319463384</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1.53449959733267</v>
+        <v>1.600673661186978</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>3.770991190010915</v>
+        <v>3.920785756540196</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>7.246478273254015</v>
+        <v>7.294295947632458</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>6.970693342672692</v>
+        <v>7.110764886611268</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>0.7524850045720173</v>
+        <v>1.03229150046128</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>3.296998147127356</v>
+        <v>3.055740345081238</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>3.571417690350078</v>
+        <v>3.540199245032331</v>
       </c>
     </row>
     <row r="49">
@@ -2243,7 +2241,7 @@
         <v>-0.2832148557962614</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.1247625017123216</v>
+        <v>-0.1247625017123217</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.1439742481931347</v>
@@ -2261,7 +2259,7 @@
         <v>0.2000985813381</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.2780394680051081</v>
+        <v>0.2780394680051079</v>
       </c>
     </row>
     <row r="50">
@@ -2272,31 +2270,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.6992395957381998</v>
+        <v>-0.6937463725240144</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.536468157383596</v>
+        <v>-0.5485204924490074</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.431315520229534</v>
+        <v>-0.4495553865756242</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.1928811015807539</v>
+        <v>-0.1890890840777134</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.1133019177579477</v>
+        <v>0.1228370730889762</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1592628305945623</v>
+        <v>0.1832960520106805</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.3655911201432849</v>
+        <v>-0.3199264898008994</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.07661331924889805</v>
+        <v>-0.07369231621011156</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.01754057621592114</v>
+        <v>0.01130598591440164</v>
       </c>
     </row>
     <row r="51">
@@ -2307,31 +2305,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.1255654362055242</v>
+        <v>-0.1275154340755661</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.1233272624810968</v>
+        <v>0.1152833541760033</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.3601899722609925</v>
+        <v>0.3490825236697396</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.6199740834183283</v>
+        <v>0.6725756598525661</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>1.160213992676762</v>
+        <v>1.229409866345869</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>1.150824688419223</v>
+        <v>1.199659228234983</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.1354135526215777</v>
+        <v>0.1780924135549986</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.5763429658646338</v>
+        <v>0.5332333087620439</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.6360987467477665</v>
+        <v>0.6123321529507407</v>
       </c>
     </row>
     <row r="52">
@@ -2361,7 +2359,7 @@
         <v>2.581223824922836</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>4.6103710220947</v>
+        <v>4.610371022094699</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>2.466690793721821</v>
@@ -2381,31 +2379,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.1473706583713238</v>
+        <v>0.1745041423054546</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-0.7026901155353734</v>
+        <v>-0.7339013319506107</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>1.950681755539814</v>
+        <v>1.973231031279529</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>2.397952458246814</v>
+        <v>2.372143870278295</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>1.161101874440878</v>
+        <v>1.090461097080459</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>3.302899404362897</v>
+        <v>3.318006420457687</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>1.636874593304861</v>
+        <v>1.567472041040739</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>0.5450494570780762</v>
+        <v>0.5561484565426547</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>3.065163157489568</v>
+        <v>3.004865173376245</v>
       </c>
     </row>
     <row r="54">
@@ -2416,31 +2414,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>2.031486898749482</v>
+        <v>2.061003308898028</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>1.032653869597448</v>
+        <v>0.9479275997979816</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>3.991013026997642</v>
+        <v>3.918221578033777</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>5.280564767661856</v>
+        <v>5.146097940340361</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>3.978276975072592</v>
+        <v>4.014163082780509</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>5.871697121829182</v>
+        <v>5.886189175987182</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>3.37174362272131</v>
+        <v>3.303640852949239</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>2.245485975630459</v>
+        <v>2.224120600581322</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>4.704769927245287</v>
+        <v>4.677243535438367</v>
       </c>
     </row>
     <row r="55">
@@ -2466,7 +2464,7 @@
         <v>0.3392347595270692</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.6059134004226148</v>
+        <v>0.6059134004226145</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>0.4579597375793631</v>
@@ -2486,31 +2484,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.03732537538299653</v>
+        <v>0.04217653324523086</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.2012460986744842</v>
+        <v>-0.2142283470475457</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.5435959126428151</v>
+        <v>0.5547998979843058</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.2889008864755401</v>
+        <v>0.2858336914213934</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.1418200306550996</v>
+        <v>0.1253296293933375</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.3981196447299163</v>
+        <v>0.4013340617194652</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.2753439297390223</v>
+        <v>0.2807612873786957</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.09362657702966144</v>
+        <v>0.09406726016239704</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.518458212026634</v>
+        <v>0.5084044497034338</v>
       </c>
     </row>
     <row r="57">
@@ -2521,31 +2519,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.7619213297627796</v>
+        <v>0.7607906475543299</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.3908789215759995</v>
+        <v>0.3434471840805865</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>1.469749315833994</v>
+        <v>1.411225606865702</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.7394502174774477</v>
+        <v>0.7316496587444034</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.5616969867102038</v>
+        <v>0.569180202259211</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.8677768464615505</v>
+        <v>0.8504896854856682</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.6618174780301129</v>
+        <v>0.657700169613737</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.446752448953268</v>
+        <v>0.4490729307736277</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.9630100421692342</v>
+        <v>0.9480762285774387</v>
       </c>
     </row>
     <row r="58">
